--- a/biology/Botanique/Sucre_roux_de_canne/Sucre_roux_de_canne.xlsx
+++ b/biology/Botanique/Sucre_roux_de_canne/Sucre_roux_de_canne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cassonade (France)
-Le sucre roux de canne ou cassonade est un sucre roux extrait de la canne à sucre[1]. En France, c'est le terme cassonade qui est le plus souvent utilisé[2]. Hors de France, notamment en Belgique[3], ainsi que dans le nord de la France[4], ce sucre est appelé sucre de canne, sucre roux ou sucre roux de canne,  alors que le terme cassonade y désigne un sucre non raffiné[5], qui peut être issu de la betterave sucrière aussi bien que de la canne à sucre, c'est-à-dire ce qui est appelé vergeoise en France[6]. 
+Le sucre roux de canne ou cassonade est un sucre roux extrait de la canne à sucre. En France, c'est le terme cassonade qui est le plus souvent utilisé. Hors de France, notamment en Belgique, ainsi que dans le nord de la France, ce sucre est appelé sucre de canne, sucre roux ou sucre roux de canne,  alors que le terme cassonade y désigne un sucre non raffiné, qui peut être issu de la betterave sucrière aussi bien que de la canne à sucre, c'est-à-dire ce qui est appelé vergeoise en France. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est le sucre brut de canne ; la cassonade est obtenue par cristallisation du sirop de batterie, ce dernier étant issu du jus de canne ou vesou par évaporation. 
 Sa saveur la rend particulièrement indiquée pour certains gâteaux. 
-Dans certaines recettes d'Asie du Sud-Est, la cassonade peut être utilisée en remplacement du sucre de palme[7].
+Dans certaines recettes d'Asie du Sud-Est, la cassonade peut être utilisée en remplacement du sucre de palme.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de la canne à sucre apparaît avant le troisième millénaire avant notre ère en Nouvelle-Guinée ; sa culture passe progressivement vers l'Indonésie puis le sous-continent indien. L'amiral d'Alexandre le Grand, Néarque en parle dans sa correspondance en qualifiant le sucre de « miel de roseau » ; l'appellation sakaron en grec vient d'un mot sanskrit qui signifie gravier, aspect que prend le sucre cristallisé[réf. nécessaire]. 
 Les Croisades permettent la commercialisation du sucre de canne par Venise dès le XIIIe siècle et sa culture apparaît alors dans le sud de l'Espagne et aux Canaries, avant de connaître son heure de gloire en Amérique et aux Antilles. Son exploitation provoque une extension massive de l'esclavage d'origine africaine sur tout le continent américain[réf. nécessaire]. 
